--- a/database/industries/siman/seshargh/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/siman/seshargh/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1FB2B-DC1B-48A8-AFDC-84CBDEDA5C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6A515-32AD-437F-8740-304D2BAE6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-19 (10)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,16 +85,19 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-02-21 (2)</t>
+    <t>1402-01-30 (3)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-10-29 (3)</t>
+    <t>1402-01-30 (4)</t>
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,19 +622,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,151 +825,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>21381</v>
+        <v>4487</v>
       </c>
       <c r="E11" s="13">
-        <v>4487</v>
+        <v>9186</v>
       </c>
       <c r="F11" s="13">
-        <v>9186</v>
+        <v>16841</v>
       </c>
       <c r="G11" s="13">
-        <v>16841</v>
+        <v>22777</v>
       </c>
       <c r="H11" s="13">
-        <v>22777</v>
+        <v>6192</v>
       </c>
       <c r="I11" s="13">
-        <v>6192</v>
+        <v>11558</v>
       </c>
       <c r="J11" s="13">
-        <v>12245</v>
+        <v>18426</v>
       </c>
       <c r="K11" s="13">
-        <v>18426</v>
+        <v>24714</v>
       </c>
       <c r="L11" s="13">
-        <v>24714</v>
+        <v>6613</v>
       </c>
       <c r="M11" s="13">
-        <v>6613</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10904</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-14079</v>
+        <v>-2578</v>
       </c>
       <c r="E12" s="11">
-        <v>-2578</v>
+        <v>-5461</v>
       </c>
       <c r="F12" s="11">
-        <v>-5461</v>
+        <v>-9245</v>
       </c>
       <c r="G12" s="11">
-        <v>-9245</v>
+        <v>-13112</v>
       </c>
       <c r="H12" s="11">
-        <v>-13112</v>
+        <v>-2995</v>
       </c>
       <c r="I12" s="11">
-        <v>-2995</v>
+        <v>-7112</v>
       </c>
       <c r="J12" s="11">
-        <v>-7471</v>
+        <v>-11148</v>
       </c>
       <c r="K12" s="11">
-        <v>-11148</v>
+        <v>-15547</v>
       </c>
       <c r="L12" s="11">
-        <v>-15547</v>
+        <v>-4307</v>
       </c>
       <c r="M12" s="11">
-        <v>-4307</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-7523</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>7302</v>
+        <v>1909</v>
       </c>
       <c r="E13" s="15">
-        <v>1909</v>
+        <v>3725</v>
       </c>
       <c r="F13" s="15">
-        <v>3725</v>
+        <v>7596</v>
       </c>
       <c r="G13" s="15">
-        <v>7596</v>
+        <v>9664</v>
       </c>
       <c r="H13" s="15">
-        <v>9664</v>
+        <v>3196</v>
       </c>
       <c r="I13" s="15">
-        <v>3196</v>
+        <v>4446</v>
       </c>
       <c r="J13" s="15">
-        <v>4774</v>
+        <v>7277</v>
       </c>
       <c r="K13" s="15">
-        <v>7277</v>
+        <v>9168</v>
       </c>
       <c r="L13" s="15">
-        <v>9168</v>
+        <v>2306</v>
       </c>
       <c r="M13" s="15">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1735</v>
+        <v>-238</v>
       </c>
       <c r="E14" s="11">
-        <v>-238</v>
+        <v>-589</v>
       </c>
       <c r="F14" s="11">
-        <v>-589</v>
+        <v>-1258</v>
       </c>
       <c r="G14" s="11">
-        <v>-1258</v>
+        <v>-2429</v>
       </c>
       <c r="H14" s="11">
-        <v>-2429</v>
+        <v>-342</v>
       </c>
       <c r="I14" s="11">
-        <v>-342</v>
+        <v>-841</v>
       </c>
       <c r="J14" s="11">
-        <v>-872</v>
+        <v>-1355</v>
       </c>
       <c r="K14" s="11">
-        <v>-1355</v>
+        <v>-1945</v>
       </c>
       <c r="L14" s="11">
-        <v>-1945</v>
+        <v>-629</v>
       </c>
       <c r="M14" s="11">
-        <v>-629</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1006,259 +1005,259 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-104</v>
+        <v>19</v>
       </c>
       <c r="E16" s="11">
-        <v>19</v>
+        <v>-18</v>
       </c>
       <c r="F16" s="11">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="G16" s="11">
-        <v>-28</v>
+        <v>-304</v>
       </c>
       <c r="H16" s="11">
-        <v>-304</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="J16" s="11">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K16" s="11">
-        <v>192</v>
-      </c>
-      <c r="L16" s="11">
         <v>152</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>5464</v>
+        <v>1690</v>
       </c>
       <c r="E17" s="15">
-        <v>1690</v>
+        <v>3117</v>
       </c>
       <c r="F17" s="15">
-        <v>3117</v>
+        <v>6310</v>
       </c>
       <c r="G17" s="15">
-        <v>6310</v>
+        <v>6931</v>
       </c>
       <c r="H17" s="15">
-        <v>6931</v>
+        <v>2999</v>
       </c>
       <c r="I17" s="15">
-        <v>2999</v>
+        <v>3784</v>
       </c>
       <c r="J17" s="15">
-        <v>4081</v>
+        <v>6115</v>
       </c>
       <c r="K17" s="15">
-        <v>6115</v>
+        <v>7375</v>
       </c>
       <c r="L17" s="15">
-        <v>7375</v>
+        <v>1677</v>
       </c>
       <c r="M17" s="15">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1205</v>
+        <v>-146</v>
       </c>
       <c r="E18" s="11">
-        <v>-146</v>
+        <v>-315</v>
       </c>
       <c r="F18" s="11">
-        <v>-315</v>
+        <v>-516</v>
       </c>
       <c r="G18" s="11">
-        <v>-516</v>
+        <v>-739</v>
       </c>
       <c r="H18" s="11">
-        <v>-739</v>
+        <v>-220</v>
       </c>
       <c r="I18" s="11">
-        <v>-220</v>
+        <v>-184</v>
       </c>
       <c r="J18" s="11">
-        <v>-184</v>
+        <v>-272</v>
       </c>
       <c r="K18" s="11">
-        <v>-272</v>
+        <v>-352</v>
       </c>
       <c r="L18" s="11">
-        <v>-352</v>
+        <v>-85</v>
       </c>
       <c r="M18" s="11">
-        <v>-85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1671</v>
+        <v>4</v>
       </c>
       <c r="E19" s="13">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F19" s="13">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="G19" s="13">
-        <v>240</v>
+        <v>4422</v>
       </c>
       <c r="H19" s="13">
-        <v>4422</v>
+        <v>57</v>
       </c>
       <c r="I19" s="13">
-        <v>57</v>
+        <v>765</v>
       </c>
       <c r="J19" s="13">
-        <v>765</v>
+        <v>1107</v>
       </c>
       <c r="K19" s="13">
-        <v>1107</v>
+        <v>7195</v>
       </c>
       <c r="L19" s="13">
-        <v>7195</v>
+        <v>268</v>
       </c>
       <c r="M19" s="13">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>5930</v>
+        <v>1547</v>
       </c>
       <c r="E20" s="17">
-        <v>1547</v>
+        <v>2966</v>
       </c>
       <c r="F20" s="17">
-        <v>2966</v>
+        <v>6034</v>
       </c>
       <c r="G20" s="17">
-        <v>6034</v>
+        <v>10615</v>
       </c>
       <c r="H20" s="17">
-        <v>10615</v>
+        <v>2836</v>
       </c>
       <c r="I20" s="17">
-        <v>2836</v>
+        <v>4365</v>
       </c>
       <c r="J20" s="17">
-        <v>4662</v>
+        <v>6950</v>
       </c>
       <c r="K20" s="17">
-        <v>6950</v>
+        <v>14217</v>
       </c>
       <c r="L20" s="17">
-        <v>14217</v>
+        <v>1860</v>
       </c>
       <c r="M20" s="17">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-549</v>
+        <v>-356</v>
       </c>
       <c r="E21" s="13">
-        <v>-356</v>
+        <v>-376</v>
       </c>
       <c r="F21" s="13">
-        <v>-376</v>
+        <v>-1076</v>
       </c>
       <c r="G21" s="13">
-        <v>-1076</v>
+        <v>-1344</v>
       </c>
       <c r="H21" s="13">
-        <v>-1344</v>
+        <v>-567</v>
       </c>
       <c r="I21" s="13">
-        <v>-567</v>
+        <v>-306</v>
       </c>
       <c r="J21" s="13">
-        <v>-351</v>
+        <v>-660</v>
       </c>
       <c r="K21" s="13">
-        <v>-660</v>
+        <v>-733</v>
       </c>
       <c r="L21" s="13">
-        <v>-733</v>
+        <v>-130</v>
       </c>
       <c r="M21" s="13">
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>5381</v>
+        <v>1192</v>
       </c>
       <c r="E22" s="17">
-        <v>1192</v>
+        <v>2589</v>
       </c>
       <c r="F22" s="17">
-        <v>2589</v>
+        <v>4958</v>
       </c>
       <c r="G22" s="17">
-        <v>4958</v>
+        <v>9271</v>
       </c>
       <c r="H22" s="17">
-        <v>9271</v>
+        <v>2269</v>
       </c>
       <c r="I22" s="17">
-        <v>2269</v>
+        <v>4059</v>
       </c>
       <c r="J22" s="17">
-        <v>4312</v>
+        <v>6290</v>
       </c>
       <c r="K22" s="17">
-        <v>6290</v>
+        <v>13484</v>
       </c>
       <c r="L22" s="17">
-        <v>13484</v>
+        <v>1730</v>
       </c>
       <c r="M22" s="17">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1278,59 +1277,59 @@
       <c r="H23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
+      <c r="I23" s="13">
+        <v>253</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13">
+      <c r="K23" s="13">
         <v>533</v>
       </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="M23" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>5381</v>
+        <v>1192</v>
       </c>
       <c r="E24" s="17">
-        <v>1192</v>
+        <v>2589</v>
       </c>
       <c r="F24" s="17">
-        <v>2589</v>
+        <v>4958</v>
       </c>
       <c r="G24" s="17">
-        <v>4958</v>
+        <v>9752</v>
       </c>
       <c r="H24" s="17">
-        <v>9752</v>
+        <v>2269</v>
       </c>
       <c r="I24" s="17">
-        <v>2269</v>
+        <v>4312</v>
       </c>
       <c r="J24" s="17">
-        <v>4312</v>
+        <v>6290</v>
       </c>
       <c r="K24" s="17">
-        <v>6290</v>
+        <v>14018</v>
       </c>
       <c r="L24" s="17">
-        <v>14018</v>
+        <v>1730</v>
       </c>
       <c r="M24" s="17">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1366,43 +1365,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>16526</v>
+        <v>9764</v>
       </c>
       <c r="E26" s="11">
-        <v>9764</v>
+        <v>10284</v>
       </c>
       <c r="F26" s="11">
-        <v>10284</v>
+        <v>10617</v>
       </c>
       <c r="G26" s="11">
-        <v>10617</v>
+        <v>10497</v>
       </c>
       <c r="H26" s="11">
-        <v>10497</v>
+        <v>9320</v>
       </c>
       <c r="I26" s="11">
-        <v>9320</v>
+        <v>9488</v>
       </c>
       <c r="J26" s="11">
-        <v>9488</v>
+        <v>9333</v>
       </c>
       <c r="K26" s="11">
-        <v>9333</v>
+        <v>9130</v>
       </c>
       <c r="L26" s="11">
-        <v>9130</v>
+        <v>7638</v>
       </c>
       <c r="M26" s="11">
-        <v>7638</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
